--- a/folder_to_reports/excel.xlsx
+++ b/folder_to_reports/excel.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,74 +433,74 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Дата создания</t>
+          <t>ДАТА</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Имя</t>
+          <t>ИМЯ</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Заказов пришло</t>
+          <t>ОБР ЗАПРОСЫ</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Обработанных</t>
+          <t>ВЫСТ СЧЕТА</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Оплаченных</t>
+          <t>ОПЛ СЧЕТА</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Маржа</t>
+          <t>МАРЖА</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Доход</t>
+          <t>ВЫРУЧКА</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Конверсия</t>
+          <t>КОНВ ЗАПР В СЧЁТ</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Конверсия счета в оплату</t>
+          <t>КОНВ СЧЕТ В ОПЛ</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Процент наценки</t>
+          <t>ПРОЦЕНТ НАЦЕНКИ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>07.10.2023</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Корманный удаф</t>
+          <t>Макс</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>155</v>
@@ -509,337 +509,49 @@
         <v>450</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>66.66666666666667</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>41.33333333333334</v>
+        <v>41.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>07.10.2023</t>
+          <t>09.10.2023</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Корманный удаф</t>
+          <t>Макс</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>560</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>66.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>33.43</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>07.10.2023</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Корманный удаф</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>255</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>800</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>16.66666666666667</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>38.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>07.10.2023</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Корманный удаф</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" s="2" t="n">
         <v>120</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>07.10.2023</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Корманный удаф</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>07.10.2023</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Корманный удаф</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>07.10.2023</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Корманный удаф</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>222</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>2222</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>11.99</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>07.10.2023</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Корманный удаф</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>333</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>07.10.2023</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Корманный удаф</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>14444</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>07.10.2023</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Аnna</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>3500</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
